--- a/Codelist Excel Files and Conversion Templates to XML/triaxType.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/triaxType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE1F728-29DB-C249-BD9D-D1E12B9B1B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A83362-7A91-2840-83BE-D1D8F57968CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="8080" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="AssociatedElements" sheetId="2" r:id="rId3"/>
     <sheet name="Lists" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -746,9 +743,6 @@
     <t>triaxType</t>
   </si>
   <si>
-    <t>DIGGS Triaxial Test Type Code List Definitions</t>
-  </si>
-  <si>
     <t>Test type codes for triaxial test procedures. These codes are used as values for the triaxialTestType property of the TriaxialTest procedure object.</t>
   </si>
   <si>
@@ -846,6 +840,9 @@
   </si>
   <si>
     <t>//diggs_geo:TriaxialTest/diggs_geo:triaxialTestType</t>
+  </si>
+  <si>
+    <t>DIGGS Triaxial Test Type Definitions</t>
   </si>
 </sst>
 </file>
@@ -989,7 +986,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1019,10 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1038,12 +1031,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1108,6 +1095,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1206,30 +1199,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="DictionaryName"/>
-      <sheetName val="Definitions"/>
-      <sheetName val="AssociatedElements"/>
-      <sheetName val="Lists"/>
-      <sheetName val="DIGGSDictionaryClassificationCo"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
@@ -1254,27 +1223,27 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D15" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D15" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1563,7 +1532,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1610,10 +1579,10 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1679,292 +1648,292 @@
         <v/>
       </c>
       <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
         <v>237</v>
       </c>
-      <c r="C2" t="s">
-        <v>238</v>
-      </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="str">
+      <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
         <v>239</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="str">
+      <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>242</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="str">
+      <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
         <v>245</v>
       </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="str">
+      <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" t="s">
-        <v>248</v>
-      </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="str">
+      <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
-        <v>250</v>
-      </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
         <v>251</v>
       </c>
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
         <v>253</v>
       </c>
-      <c r="C9" t="s">
-        <v>254</v>
-      </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
         <v>255</v>
       </c>
-      <c r="C10" t="s">
-        <v>256</v>
-      </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="str">
+      <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="C11" t="s">
-        <v>258</v>
-      </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
         <v>259</v>
       </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
         <v>261</v>
       </c>
-      <c r="C13" t="s">
-        <v>262</v>
-      </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
         <v>263</v>
       </c>
-      <c r="C14" t="s">
-        <v>264</v>
-      </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="str">
+      <c r="A15" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
         <v>265</v>
       </c>
-      <c r="C15" t="s">
-        <v>266</v>
-      </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2026,166 +1995,166 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="str">
+      <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="str">
+      <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="str">
+      <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="str">
+      <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="str">
+      <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="str">
+      <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="str">
+      <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="str">
+      <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="str">
+      <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="str">
+      <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="str">
+      <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="str">
+      <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="str">
+      <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/triaxType.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/triaxType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A83362-7A91-2840-83BE-D1D8F57968CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A5CFB3-FB0D-584D-AB33-CE7332A026EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="8080" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="8080" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="270">
   <si>
     <t>Description</t>
   </si>
@@ -773,27 +773,15 @@
     <t>CADC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anisotropically consolidated drained compression with pwp measurement</t>
-  </si>
-  <si>
     <t>CADE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anisotropically consolidated drained extension with pwp measurement</t>
-  </si>
-  <si>
     <t>CAUC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anisotropically consolidated undrained compression with pwp measurement</t>
-  </si>
-  <si>
     <t>CAUE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anisotropically consolidated undrained extension with pwp measurement</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -809,33 +797,18 @@
     <t>CIDC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Isotropically consolidated drained compression with pwp measurement</t>
-  </si>
-  <si>
     <t>CIDE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Isotropically consolidated drained extension with pwp measurement</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
-    <t xml:space="preserve"> Consolidated undrained with pwp measurement (single stage)</t>
-  </si>
-  <si>
     <t>CUM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Consolidated undrained with pwp measurement (multi-stage)</t>
-  </si>
-  <si>
     <t>UUP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Unconsolidated undrained with pwp measurement</t>
-  </si>
-  <si>
     <t>DIGGS</t>
   </si>
   <si>
@@ -843,6 +816,36 @@
   </si>
   <si>
     <t>DIGGS Triaxial Test Type Definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anisotropically consolidated drained compression with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anisotropically consolidated drained extension with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anisotropically consolidated undrained compression with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anisotropically consolidated undrained extension with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isotropically consolidated drained compression with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isotropically consolidated drained extension with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consolidated undrained with pore water pressure measurement (single stage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consolidated undrained with pore water pressure measurement (multi-stage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unconsolidated undrained with pore water pressure measurement</t>
+  </si>
+  <si>
+    <t>//diggs:TriaxialTest/diggs:triaxialTestType</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1016,6 +1019,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1233,8 +1241,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D15" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D29" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
@@ -1531,7 +1539,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1587,7 @@
         <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>235</v>
@@ -1600,14 +1608,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G15"/>
+      <selection activeCell="C2" sqref="C2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1660,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1681,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1702,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1714,16 +1722,16 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1732,19 +1740,19 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1753,19 +1761,19 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1774,19 +1782,19 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1795,19 +1803,19 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1816,19 +1824,19 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1837,19 +1845,19 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1858,19 +1866,19 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1879,19 +1887,19 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1900,19 +1908,19 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1921,19 +1929,19 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1960,11 +1968,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,7 +2006,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,7 +2018,7 @@
         <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,7 +2030,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2034,7 +2042,7 @@
         <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,10 +2051,10 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,10 +2063,10 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2067,10 +2075,10 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,10 +2087,10 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,10 +2099,10 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,10 +2111,10 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,10 +2123,10 @@
         <v/>
       </c>
       <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,10 +2135,10 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,10 +2147,10 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,10 +2159,178 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="str">
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1840,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
